--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t>VIN</t>
   </si>
@@ -207,6 +207,42 @@
   </si>
   <si>
     <t>CA_MAKE_TEXT</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Arteon</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Arteon SEL</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>9MSRP17H&amp;V</t>
   </si>
 </sst>
 </file>
@@ -557,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +607,11 @@
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.88671875" customWidth="1"/>
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
@@ -1163,7 +1203,124 @@
         <v>51</v>
       </c>
     </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="3">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>214</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="3">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI6">
+        <v>20000101</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petrenko, Viktor (C)</author>
+  </authors>
+  <commentList>
+    <comment ref="AA6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrenko, Viktor (C):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+User for MSRP PAS-730</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
   <si>
     <t>VIN</t>
   </si>
@@ -218,38 +252,32 @@
     <t>A</t>
   </si>
   <si>
-    <t>Arteon</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Coupe</t>
-  </si>
-  <si>
-    <t>Sedan</t>
-  </si>
-  <si>
-    <t>Arteon SEL</t>
-  </si>
-  <si>
     <t>8L V12</t>
   </si>
   <si>
     <t>4WD</t>
   </si>
   <si>
-    <t>GC</t>
-  </si>
-  <si>
     <t>9MSRP17H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>RT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +305,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.4"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,6 +365,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -592,11 +651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,9 +883,7 @@
       <c r="AB2" s="3">
         <v>41</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="3" t="s">
         <v>39</v>
       </c>
@@ -940,9 +997,7 @@
       <c r="AB3" s="3">
         <v>41</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="AC3" s="3"/>
       <c r="AD3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1056,9 +1111,7 @@
       <c r="AB4" s="3">
         <v>41</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1172,9 +1225,7 @@
       <c r="AB5" s="3">
         <v>41</v>
       </c>
-      <c r="AC5" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1203,24 +1254,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>68</v>
@@ -1232,19 +1283,19 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O6" s="3">
         <v>12</v>
@@ -1256,7 +1307,7 @@
         <v>214</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S6" s="3">
         <v>4</v>
@@ -1280,17 +1331,15 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="3"/>
       <c r="AD6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1306,21 +1355,22 @@
       <c r="AH6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="3">
         <v>20000101</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -258,9 +258,6 @@
     <t>4WD</t>
   </si>
   <si>
-    <t>9MSRP17H&amp;V</t>
-  </si>
-  <si>
     <t>VOLKSWAGEN</t>
   </si>
   <si>
@@ -271,13 +268,16 @@
   </si>
   <si>
     <t>RT</t>
+  </si>
+  <si>
+    <t>7MSRP15H&amp;V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.4"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -325,7 +319,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +329,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,12 +353,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -654,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,117 +1236,116 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>66</v>
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>2015</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="4">
+        <v>88888</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="4">
+        <v>12</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>214</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>214</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="3">
-        <v>4</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="AA6" s="4">
         <v>33</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="4">
         <v>43</v>
       </c>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AH6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="4">
         <v>20000101</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AK6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
   <si>
     <t>VIN</t>
   </si>
@@ -228,24 +228,15 @@
     <t>CHOICE_TIER</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>CA_MAKE</t>
   </si>
   <si>
     <t>CA_MAKE_TEXT</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -271,6 +262,12 @@
   </si>
   <si>
     <t>7MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -637,7 +634,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,10 +788,10 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -870,16 +867,16 @@
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -905,10 +902,10 @@
         <v>2005</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -984,16 +981,16 @@
         <v>39</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
@@ -1019,10 +1016,10 @@
         <v>2005</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1098,16 +1095,16 @@
         <v>39</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1133,10 +1130,10 @@
         <v>2005</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1212,16 +1209,16 @@
         <v>39</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AI5">
         <v>20190101</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>42</v>
@@ -1247,16 +1244,16 @@
         <v>2015</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4">
         <v>88888</v>
@@ -1265,19 +1262,19 @@
         <v>29</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O6" s="4">
         <v>12</v>
@@ -1289,7 +1286,7 @@
         <v>214</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S6" s="4">
         <v>4</v>
@@ -1313,7 +1310,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AA6" s="4">
         <v>33</v>
@@ -1325,16 +1322,16 @@
         <v>39</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AI6" s="4">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
   <si>
     <t>VIN</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -633,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1199,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA5" s="3">
         <v>41</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
   <si>
     <t>VIN</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>invalidVIN</t>
+  </si>
+  <si>
+    <t>SecondValid</t>
+  </si>
+  <si>
+    <t>ThirdValid</t>
   </si>
 </sst>
 </file>
@@ -636,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +891,7 @@
         <v>60</v>
       </c>
       <c r="AI2">
-        <v>20000101</v>
+        <v>20010101</v>
       </c>
       <c r="AJ2" t="s">
         <v>39</v>
@@ -911,7 +920,7 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1025,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1139,7 +1148,7 @@
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,16 +879,16 @@
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AI2">
         <v>20010101</v>
@@ -1107,16 +1107,16 @@
         <v>39</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AI4">
         <v>20150101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,8 +1243,8 @@
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4">
-        <v>2015</v>
+      <c r="C6" s="3">
+        <v>2016</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>63</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -637,7 +637,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1244,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>63</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
   <si>
     <t>VIN</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>ThirdValid</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
   </si>
 </sst>
 </file>
@@ -645,35 +648,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="29" width="16.28515625" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -800,10 +803,10 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -903,7 +906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
   <si>
     <t>VIN</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>ThirdValid</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
   </si>
 </sst>
 </file>
@@ -648,35 +645,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="29" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.77734375" customWidth="1"/>
+    <col min="26" max="26" width="8.21875" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="29" width="16.21875" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="38" max="38" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -803,10 +800,10 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -906,7 +903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
   <si>
     <t>VIN</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>ThirdValid</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
   </si>
 </sst>
 </file>
@@ -645,35 +648,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="8.21875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="29" width="16.28515625" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -800,10 +803,10 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -903,7 +906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
